--- a/IRR_ols3.xlsx
+++ b/IRR_ols3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,31 +20,31 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">poly(LFund_GeoHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_GeoHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_StageHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_StageHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_PISHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_PISHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LNumber_Investments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTotal_Investments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Deal_Year)1982</t>
+    <t xml:space="preserve">poly(Fund_GeoHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_GeoHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_StageHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_StageHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_PIGHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_PIGHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number_Investments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_Investments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal_Size</t>
   </si>
   <si>
     <t xml:space="preserve">as.factor(Deal_Year)1983</t>
@@ -56,9 +56,6 @@
     <t xml:space="preserve">as.factor(Deal_Year)1985</t>
   </si>
   <si>
-    <t xml:space="preserve">as.factor(Deal_Year)1986</t>
-  </si>
-  <si>
     <t xml:space="preserve">as.factor(Deal_Year)1987</t>
   </si>
   <si>
@@ -158,173 +155,119 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.965 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.838)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.983)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.978)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.076 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.029)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.898)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.045)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.960)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.073)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.057)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.988)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.967 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.987)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.986)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.539 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.138)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.773 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.854)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.722 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.845)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.777 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.841)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.795 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.825)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.832)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.826)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.822)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.631 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.820)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.628 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.817)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.813)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.812)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.612 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.810)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.152 **</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.144 **</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.815)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.955 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.780 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.663 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.698 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.831)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.972 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.827)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.057 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.791 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.855)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.936 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.902)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.015 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.883)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.862)  </t>
+    <t xml:space="preserve">(0.969)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.218)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.207)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.091)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.723)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.260)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.175)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.170)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.366)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.171)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.113)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.034)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.047)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.071)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.994)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.989)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.977)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.967)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.968)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.965)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.972)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.975)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.985)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.992)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.987)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.025)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.072)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.051)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.026)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="84">
+  <numFmts count="165">
     <numFmt numFmtId="50000" formatCode="0.000"/>
     <numFmt numFmtId="50001" formatCode="0.000"/>
     <numFmt numFmtId="50002" formatCode="0.000"/>
@@ -409,6 +352,87 @@
     <numFmt numFmtId="50081" formatCode="0.000"/>
     <numFmt numFmtId="50082" formatCode="0.000"/>
     <numFmt numFmtId="50083" formatCode="0.000"/>
+    <numFmt numFmtId="50084" formatCode="0.000"/>
+    <numFmt numFmtId="50085" formatCode="0.000"/>
+    <numFmt numFmtId="50086" formatCode="0.000"/>
+    <numFmt numFmtId="50087" formatCode="0.000"/>
+    <numFmt numFmtId="50088" formatCode="0.000"/>
+    <numFmt numFmtId="50089" formatCode="0.000"/>
+    <numFmt numFmtId="50090" formatCode="0.000"/>
+    <numFmt numFmtId="50091" formatCode="0.000"/>
+    <numFmt numFmtId="50092" formatCode="0.000"/>
+    <numFmt numFmtId="50093" formatCode="0.000"/>
+    <numFmt numFmtId="50094" formatCode="0.000"/>
+    <numFmt numFmtId="50095" formatCode="0.000"/>
+    <numFmt numFmtId="50096" formatCode="0.000"/>
+    <numFmt numFmtId="50097" formatCode="0.000"/>
+    <numFmt numFmtId="50098" formatCode="0.000"/>
+    <numFmt numFmtId="50099" formatCode="0.000"/>
+    <numFmt numFmtId="50100" formatCode="0.000"/>
+    <numFmt numFmtId="50101" formatCode="0.000"/>
+    <numFmt numFmtId="50102" formatCode="0.000"/>
+    <numFmt numFmtId="50103" formatCode="0.000"/>
+    <numFmt numFmtId="50104" formatCode="0.000"/>
+    <numFmt numFmtId="50105" formatCode="0.000"/>
+    <numFmt numFmtId="50106" formatCode="0.000"/>
+    <numFmt numFmtId="50107" formatCode="0.000"/>
+    <numFmt numFmtId="50108" formatCode="0.000"/>
+    <numFmt numFmtId="50109" formatCode="0.000"/>
+    <numFmt numFmtId="50110" formatCode="0.000"/>
+    <numFmt numFmtId="50111" formatCode="0.000"/>
+    <numFmt numFmtId="50112" formatCode="0.000"/>
+    <numFmt numFmtId="50113" formatCode="0.000"/>
+    <numFmt numFmtId="50114" formatCode="0.000"/>
+    <numFmt numFmtId="50115" formatCode="0.000"/>
+    <numFmt numFmtId="50116" formatCode="0.000"/>
+    <numFmt numFmtId="50117" formatCode="0.000"/>
+    <numFmt numFmtId="50118" formatCode="0.000"/>
+    <numFmt numFmtId="50119" formatCode="0.000"/>
+    <numFmt numFmtId="50120" formatCode="0.000"/>
+    <numFmt numFmtId="50121" formatCode="0.000"/>
+    <numFmt numFmtId="50122" formatCode="0.000"/>
+    <numFmt numFmtId="50123" formatCode="0.000"/>
+    <numFmt numFmtId="50124" formatCode="0.000"/>
+    <numFmt numFmtId="50125" formatCode="0.000"/>
+    <numFmt numFmtId="50126" formatCode="0.000"/>
+    <numFmt numFmtId="50127" formatCode="0.000"/>
+    <numFmt numFmtId="50128" formatCode="0.000"/>
+    <numFmt numFmtId="50129" formatCode="0.000"/>
+    <numFmt numFmtId="50130" formatCode="0.000"/>
+    <numFmt numFmtId="50131" formatCode="0.000"/>
+    <numFmt numFmtId="50132" formatCode="0.000"/>
+    <numFmt numFmtId="50133" formatCode="0.000"/>
+    <numFmt numFmtId="50134" formatCode="0.000"/>
+    <numFmt numFmtId="50135" formatCode="0.000"/>
+    <numFmt numFmtId="50136" formatCode="0.000"/>
+    <numFmt numFmtId="50137" formatCode="0.000"/>
+    <numFmt numFmtId="50138" formatCode="0.000"/>
+    <numFmt numFmtId="50139" formatCode="0.000"/>
+    <numFmt numFmtId="50140" formatCode="0.000"/>
+    <numFmt numFmtId="50141" formatCode="0.000"/>
+    <numFmt numFmtId="50142" formatCode="0.000"/>
+    <numFmt numFmtId="50143" formatCode="0.000"/>
+    <numFmt numFmtId="50144" formatCode="0.000"/>
+    <numFmt numFmtId="50145" formatCode="0.000"/>
+    <numFmt numFmtId="50146" formatCode="0.000"/>
+    <numFmt numFmtId="50147" formatCode="0.000"/>
+    <numFmt numFmtId="50148" formatCode="0.000"/>
+    <numFmt numFmtId="50149" formatCode="0.000"/>
+    <numFmt numFmtId="50150" formatCode="0.000"/>
+    <numFmt numFmtId="50151" formatCode="0.000"/>
+    <numFmt numFmtId="50152" formatCode="0.000"/>
+    <numFmt numFmtId="50153" formatCode="0.000"/>
+    <numFmt numFmtId="50154" formatCode="0.000"/>
+    <numFmt numFmtId="50155" formatCode="0.000"/>
+    <numFmt numFmtId="50156" formatCode="0.000"/>
+    <numFmt numFmtId="50157" formatCode="0.000"/>
+    <numFmt numFmtId="50158" formatCode="0.000"/>
+    <numFmt numFmtId="50159" formatCode="0.000"/>
+    <numFmt numFmtId="50160" formatCode="0.000"/>
+    <numFmt numFmtId="50161" formatCode="0.000"/>
+    <numFmt numFmtId="50162" formatCode="0.000"/>
+    <numFmt numFmtId="50163" formatCode="0.000"/>
+    <numFmt numFmtId="50164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -514,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -762,28 +786,271 @@
     <xf numFmtId="50076" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50077" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50077" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50078" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50079" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50079" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50080" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50081" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50081" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50082" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50083" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50083" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50084" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50085" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50086" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50087" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50088" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50089" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50090" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50091" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50092" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50093" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50094" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50095" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50096" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50097" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50098" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50099" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50100" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50101" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50102" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50103" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50104" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50105" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50106" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50107" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50108" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50109" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50110" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50111" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50112" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50113" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50114" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50115" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50116" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50117" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50118" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50119" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50120" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50121" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50122" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50123" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50124" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50125" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50126" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50127" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50128" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50129" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50130" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50131" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50132" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50133" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50134" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50135" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50136" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50137" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50138" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50139" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50140" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50141" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50142" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50143" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50144" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50145" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50146" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50147" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50148" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50149" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50150" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50151" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50152" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50153" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50154" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50155" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50156" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50157" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50158" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50159" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50160" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50161" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50162" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50163" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50164" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1084,15 +1351,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>48</v>
+      <c r="B2" s="6" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -1100,7 +1373,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -1108,7 +1384,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>1.732</v>
+        <v>1.373</v>
+      </c>
+      <c r="C4" s="91" t="n">
+        <v>1.373</v>
       </c>
     </row>
     <row r="5">
@@ -1116,7 +1395,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -1124,7 +1406,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>1.828</v>
+        <v>1.889</v>
+      </c>
+      <c r="C6" s="93" t="n">
+        <v>1.889</v>
       </c>
     </row>
     <row r="7">
@@ -1132,15 +1417,21 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="C7" s="94" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>52</v>
+      <c r="B8" s="12" t="n">
+        <v>-1.585</v>
+      </c>
+      <c r="C8" s="95" t="n">
+        <v>-1.585</v>
       </c>
     </row>
     <row r="9">
@@ -1148,7 +1439,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C9" s="96" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -1156,7 +1450,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>1.236</v>
+        <v>1.223</v>
+      </c>
+      <c r="C10" s="97" t="n">
+        <v>1.223</v>
       </c>
     </row>
     <row r="11">
@@ -1164,7 +1461,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -1172,7 +1472,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-1.954</v>
+        <v>-1.061</v>
+      </c>
+      <c r="C12" s="99" t="n">
+        <v>-1.061</v>
       </c>
     </row>
     <row r="13">
@@ -1180,7 +1483,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="C13" s="100" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1494,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>-1.049</v>
+        <v>0.59</v>
+      </c>
+      <c r="C14" s="101" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="15">
@@ -1196,7 +1505,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="C15" s="102" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -1204,7 +1516,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>0.135</v>
+        <v>0.003</v>
+      </c>
+      <c r="C16" s="103" t="n">
+        <v>0.003</v>
       </c>
     </row>
     <row r="17">
@@ -1212,7 +1527,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="C17" s="104" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18">
@@ -1220,7 +1538,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-0.065</v>
+        <v>0</v>
+      </c>
+      <c r="C18" s="105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1228,7 +1549,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="C19" s="106" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -1236,7 +1560,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>-1.721</v>
+        <v>0</v>
+      </c>
+      <c r="C20" s="107" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1244,15 +1571,21 @@
         <v>0</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="C21" s="108" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>60</v>
+      <c r="B22" s="26" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="C22" s="109" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -1260,7 +1593,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="C23" s="110" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -1268,7 +1604,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-1.879</v>
+        <v>-0.093</v>
+      </c>
+      <c r="C24" s="111" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -1276,15 +1615,21 @@
         <v>0</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="C25" s="112" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>63</v>
+      <c r="B26" s="30" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="C26" s="113" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27">
@@ -1292,7 +1637,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="C27" s="114" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -1300,7 +1648,10 @@
         <v>14</v>
       </c>
       <c r="B28" s="32" t="n">
-        <v>-1.938</v>
+        <v>0.112</v>
+      </c>
+      <c r="C28" s="115" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="29">
@@ -1308,15 +1659,21 @@
         <v>0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="C29" s="116" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>65</v>
+      <c r="B30" s="34" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="C30" s="117" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -1324,15 +1681,21 @@
         <v>0</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>67</v>
+      <c r="B32" s="36" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="C32" s="119" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="33">
@@ -1340,15 +1703,21 @@
         <v>0</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="C33" s="120" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="38" t="s">
-        <v>69</v>
+      <c r="B34" s="38" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="C34" s="121" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="35">
@@ -1356,7 +1725,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="C35" s="122" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="36">
@@ -1364,7 +1736,10 @@
         <v>18</v>
       </c>
       <c r="B36" s="40" t="n">
-        <v>-1.378</v>
+        <v>0.262</v>
+      </c>
+      <c r="C36" s="123" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="37">
@@ -1372,15 +1747,21 @@
         <v>0</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="C37" s="124" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="42" t="s">
-        <v>71</v>
+      <c r="B38" s="42" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C38" s="125" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="39">
@@ -1388,7 +1769,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="C39" s="126" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40">
@@ -1396,7 +1780,10 @@
         <v>20</v>
       </c>
       <c r="B40" s="44" t="n">
-        <v>-1.624</v>
+        <v>0</v>
+      </c>
+      <c r="C40" s="127" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41">
@@ -1404,7 +1791,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="C41" s="128" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="42">
@@ -1412,7 +1802,10 @@
         <v>21</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>-1.617</v>
+        <v>0.192</v>
+      </c>
+      <c r="C42" s="129" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="43">
@@ -1420,7 +1813,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="C43" s="130" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="44">
@@ -1428,7 +1824,10 @@
         <v>22</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>-1.522</v>
+        <v>0.208</v>
+      </c>
+      <c r="C44" s="131" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="45">
@@ -1436,15 +1835,21 @@
         <v>0</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="C45" s="132" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="50" t="s">
-        <v>76</v>
+      <c r="B46" s="50" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="C46" s="133" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="47">
@@ -1452,15 +1857,21 @@
         <v>0</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>77</v>
+        <v>68</v>
+      </c>
+      <c r="C47" s="134" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="52" t="s">
-        <v>78</v>
+      <c r="B48" s="52" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="C48" s="135" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="49">
@@ -1468,7 +1879,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+      <c r="C49" s="136" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="50">
@@ -1476,7 +1890,10 @@
         <v>25</v>
       </c>
       <c r="B50" s="54" t="n">
-        <v>-1.497</v>
+        <v>0.192</v>
+      </c>
+      <c r="C50" s="137" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="51">
@@ -1484,7 +1901,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="C51" s="138" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="52">
@@ -1492,7 +1912,10 @@
         <v>26</v>
       </c>
       <c r="B52" s="56" t="n">
-        <v>-1.479</v>
+        <v>0.28</v>
+      </c>
+      <c r="C52" s="139" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="53">
@@ -1500,14 +1923,20 @@
         <v>0</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="C53" s="140" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="58" t="n">
+        <v>-0.425</v>
+      </c>
+      <c r="C54" s="141" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1516,15 +1945,21 @@
         <v>0</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>83</v>
+        <v>71</v>
+      </c>
+      <c r="C55" s="142" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="60" t="s">
-        <v>84</v>
+      <c r="B56" s="60" t="n">
+        <v>-0.365</v>
+      </c>
+      <c r="C56" s="143" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="57">
@@ -1532,15 +1967,21 @@
         <v>0</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+      <c r="C57" s="144" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="62" t="s">
-        <v>85</v>
+      <c r="B58" s="62" t="n">
+        <v>-0.171</v>
+      </c>
+      <c r="C58" s="145" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="59">
@@ -1548,15 +1989,21 @@
         <v>0</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>86</v>
+        <v>73</v>
+      </c>
+      <c r="C59" s="146" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="64" t="s">
-        <v>87</v>
+      <c r="B60" s="64" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="C60" s="147" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="61">
@@ -1564,15 +2011,21 @@
         <v>0</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="C61" s="148" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="66" t="s">
-        <v>88</v>
+      <c r="B62" s="66" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="C62" s="149" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="63">
@@ -1580,15 +2033,21 @@
         <v>0</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="C63" s="150" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="68" t="s">
-        <v>89</v>
+      <c r="B64" s="68" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="C64" s="151" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="65">
@@ -1596,15 +2055,21 @@
         <v>0</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="C65" s="152" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="70" t="s">
-        <v>90</v>
+      <c r="B66" s="70" t="n">
+        <v>-0.231</v>
+      </c>
+      <c r="C66" s="153" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="67">
@@ -1612,15 +2077,21 @@
         <v>0</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="C67" s="154" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="72" t="s">
-        <v>92</v>
+      <c r="B68" s="72" t="n">
+        <v>-0.339</v>
+      </c>
+      <c r="C68" s="155" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="69">
@@ -1628,15 +2099,21 @@
         <v>0</v>
       </c>
       <c r="B69" s="73" t="s">
-        <v>93</v>
+        <v>66</v>
+      </c>
+      <c r="C69" s="156" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="74" t="s">
-        <v>94</v>
+      <c r="B70" s="74" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="C70" s="157" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="71">
@@ -1644,15 +2121,21 @@
         <v>0</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>73</v>
+        <v>62</v>
+      </c>
+      <c r="C71" s="158" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B72" s="76" t="s">
-        <v>95</v>
+      <c r="B72" s="76" t="n">
+        <v>-0.423</v>
+      </c>
+      <c r="C72" s="159" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="73">
@@ -1660,15 +2143,21 @@
         <v>0</v>
       </c>
       <c r="B73" s="77" t="s">
-        <v>96</v>
+        <v>77</v>
+      </c>
+      <c r="C73" s="160" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="78" t="s">
-        <v>92</v>
+      <c r="B74" s="78" t="n">
+        <v>-0.226</v>
+      </c>
+      <c r="C74" s="161" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="75">
@@ -1676,15 +2165,21 @@
         <v>0</v>
       </c>
       <c r="B75" s="79" t="s">
-        <v>96</v>
+        <v>78</v>
+      </c>
+      <c r="C75" s="162" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B76" s="80" t="s">
-        <v>97</v>
+      <c r="B76" s="80" t="n">
+        <v>-0.305</v>
+      </c>
+      <c r="C76" s="163" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="77">
@@ -1692,15 +2187,21 @@
         <v>0</v>
       </c>
       <c r="B77" s="81" t="s">
-        <v>98</v>
+        <v>79</v>
+      </c>
+      <c r="C77" s="164" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="82" t="s">
-        <v>99</v>
+      <c r="B78" s="82" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="C78" s="165" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="79">
@@ -1708,7 +2209,10 @@
         <v>0</v>
       </c>
       <c r="B79" s="83" t="s">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="C79" s="166" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="80">
@@ -1716,66 +2220,66 @@
         <v>40</v>
       </c>
       <c r="B80" s="84" t="n">
-        <v>-1.64</v>
+        <v>540</v>
+      </c>
+      <c r="C80" s="167" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="85" t="s">
-        <v>101</v>
+        <v>41</v>
+      </c>
+      <c r="B81" s="85" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="C81" s="168" t="n">
+        <v>0.108</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B82" s="86" t="n">
-        <v>760</v>
+        <v>0.04</v>
+      </c>
+      <c r="C82" s="169" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B83" s="87" t="n">
-        <v>0.121</v>
+        <v>1.598</v>
+      </c>
+      <c r="C83" s="170" t="n">
+        <v>1.598</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="s">
-        <v>43</v>
+      <c r="A84" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B84" s="88" t="n">
-        <v>0.074</v>
+        <v>0.015</v>
+      </c>
+      <c r="C84" s="171" t="n">
+        <v>0.015</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B85" s="89" t="n">
-        <v>2.549</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B86" s="90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B87" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A85:C85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/IRR_ols3.xlsx
+++ b/IRR_ols3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Deal_Size</t>
   </si>
   <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1982</t>
+  </si>
+  <si>
     <t xml:space="preserve">as.factor(Deal_Year)1983</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t xml:space="preserve">as.factor(Deal_Year)1985</t>
   </si>
   <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1986</t>
+  </si>
+  <si>
     <t xml:space="preserve">as.factor(Deal_Year)1987</t>
   </si>
   <si>
@@ -155,119 +161,164 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.969)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.218)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.207)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.091)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.723)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.260)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.175)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.170)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.366)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.171)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.113)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.024)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.034)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.047)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.071)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.994)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.989)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.977)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.967)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.968)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.965)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.972)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.975)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.985)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.992)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.987)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.025)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.072)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.051)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.026)</t>
+    <t xml:space="preserve">1.892 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.863)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.073)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.097 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.987)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.112)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.991)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.498)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.132)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003 **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.001)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.000)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.056)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.055)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.053)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.453 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.057)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.215)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.912)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.902)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.895)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.898)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.783 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.880)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.888)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.882)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.878)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.876)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.873)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.869)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.868)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.866)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.082 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.029 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.870)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.862 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.752 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.949 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.885)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.038 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.889)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.913)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.019 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.004 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.964)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.083 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.945)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.922)  </t>
   </si>
   <si>
     <t xml:space="preserve">(2)</t>
   </si>
   <si>
-    <t xml:space="preserve">     </t>
+    <t xml:space="preserve">       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="165">
+  <numFmts count="173">
     <numFmt numFmtId="50000" formatCode="0.000"/>
     <numFmt numFmtId="50001" formatCode="0.000"/>
     <numFmt numFmtId="50002" formatCode="0.000"/>
@@ -433,6 +484,14 @@
     <numFmt numFmtId="50162" formatCode="0.000"/>
     <numFmt numFmtId="50163" formatCode="0.000"/>
     <numFmt numFmtId="50164" formatCode="0.000"/>
+    <numFmt numFmtId="50165" formatCode="0.000"/>
+    <numFmt numFmtId="50166" formatCode="0.000"/>
+    <numFmt numFmtId="50167" formatCode="0.000"/>
+    <numFmt numFmtId="50168" formatCode="0.000"/>
+    <numFmt numFmtId="50169" formatCode="0.000"/>
+    <numFmt numFmtId="50170" formatCode="0.000"/>
+    <numFmt numFmtId="50171" formatCode="0.000"/>
+    <numFmt numFmtId="50172" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -538,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -786,24 +845,24 @@
     <xf numFmtId="50076" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50077" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50077" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50078" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50079" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50080" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50081" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50078" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50079" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50080" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50081" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="50082" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
@@ -813,7 +872,7 @@
     <xf numFmtId="50084" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50085" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50085" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50086" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1035,7 +1094,7 @@
     <xf numFmtId="50158" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50159" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50159" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50160" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1050,7 +1109,31 @@
     <xf numFmtId="50163" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50164" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50164" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50165" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50166" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50167" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50168" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50169" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50170" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50171" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50172" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1351,21 +1434,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>82</v>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3">
@@ -1373,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="90" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4">
@@ -1384,10 +1467,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>1.373</v>
-      </c>
-      <c r="C4" s="91" t="n">
-        <v>1.373</v>
+        <v>1.416</v>
+      </c>
+      <c r="C4" s="95" t="n">
+        <v>1.416</v>
       </c>
     </row>
     <row r="5">
@@ -1395,21 +1478,21 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="92" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="C5" s="96" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="C6" s="93" t="n">
-        <v>1.889</v>
+      <c r="B6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="97" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -1417,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="94" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -1428,10 +1511,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>-1.585</v>
-      </c>
-      <c r="C8" s="95" t="n">
-        <v>-1.585</v>
+        <v>-1.779</v>
+      </c>
+      <c r="C8" s="99" t="n">
+        <v>-1.779</v>
       </c>
     </row>
     <row r="9">
@@ -1439,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="96" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -1450,10 +1533,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>1.223</v>
-      </c>
-      <c r="C10" s="97" t="n">
-        <v>1.223</v>
+        <v>1.663</v>
+      </c>
+      <c r="C10" s="101" t="n">
+        <v>1.663</v>
       </c>
     </row>
     <row r="11">
@@ -1461,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="98" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="C11" s="102" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -1472,10 +1555,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-1.061</v>
-      </c>
-      <c r="C12" s="99" t="n">
-        <v>-1.061</v>
+        <v>0.456</v>
+      </c>
+      <c r="C12" s="103" t="n">
+        <v>0.456</v>
       </c>
     </row>
     <row r="13">
@@ -1483,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="100" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="C13" s="104" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -1494,10 +1577,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="C14" s="101" t="n">
-        <v>0.59</v>
+        <v>1.724</v>
+      </c>
+      <c r="C14" s="105" t="n">
+        <v>1.724</v>
       </c>
     </row>
     <row r="15">
@@ -1505,21 +1588,21 @@
         <v>0</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="102" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="C15" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="20" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="C16" s="103" t="n">
-        <v>0.003</v>
+      <c r="B16" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -1527,21 +1610,21 @@
         <v>0</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="104" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="C17" s="108" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="105" t="n">
-        <v>0</v>
+      <c r="B18" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="109" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -1549,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="106" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="C19" s="110" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20">
@@ -1562,7 +1645,7 @@
       <c r="B20" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="107" t="n">
+      <c r="C20" s="111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1571,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="108" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="C21" s="112" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22">
@@ -1582,10 +1665,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="C22" s="109" t="s">
-        <v>82</v>
+        <v>-1.654</v>
+      </c>
+      <c r="C22" s="113" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="23">
@@ -1593,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="110" t="s">
-        <v>82</v>
+        <v>62</v>
+      </c>
+      <c r="C23" s="114" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="24">
@@ -1604,10 +1687,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-0.093</v>
-      </c>
-      <c r="C24" s="111" t="s">
-        <v>82</v>
+        <v>-1.897</v>
+      </c>
+      <c r="C24" s="115" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="25">
@@ -1615,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="112" t="s">
-        <v>82</v>
+        <v>63</v>
+      </c>
+      <c r="C25" s="116" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="26">
@@ -1626,10 +1709,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="30" t="n">
-        <v>0.072</v>
-      </c>
-      <c r="C26" s="113" t="s">
-        <v>82</v>
+        <v>-1.883</v>
+      </c>
+      <c r="C26" s="117" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="27">
@@ -1637,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="114" t="s">
-        <v>82</v>
+        <v>64</v>
+      </c>
+      <c r="C27" s="118" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="32" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="C28" s="115" t="s">
-        <v>82</v>
+      <c r="B28" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="119" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="29">
@@ -1659,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="116" t="s">
-        <v>82</v>
+        <v>66</v>
+      </c>
+      <c r="C29" s="120" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="30">
@@ -1670,10 +1753,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="34" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="C30" s="117" t="s">
-        <v>82</v>
+        <v>-1.938</v>
+      </c>
+      <c r="C30" s="121" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="31">
@@ -1681,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="118" t="s">
-        <v>82</v>
+        <v>67</v>
+      </c>
+      <c r="C31" s="122" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="32">
@@ -1692,10 +1775,10 @@
         <v>16</v>
       </c>
       <c r="B32" s="36" t="n">
-        <v>0.159</v>
-      </c>
-      <c r="C32" s="119" t="s">
-        <v>82</v>
+        <v>-1.712</v>
+      </c>
+      <c r="C32" s="123" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -1703,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="120" t="s">
-        <v>82</v>
+        <v>68</v>
+      </c>
+      <c r="C33" s="124" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="34">
@@ -1714,10 +1797,10 @@
         <v>17</v>
       </c>
       <c r="B34" s="38" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="C34" s="121" t="s">
-        <v>82</v>
+        <v>-1.684</v>
+      </c>
+      <c r="C34" s="125" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="35">
@@ -1725,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="122" t="s">
-        <v>82</v>
+        <v>69</v>
+      </c>
+      <c r="C35" s="126" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="36">
@@ -1736,10 +1819,10 @@
         <v>18</v>
       </c>
       <c r="B36" s="40" t="n">
-        <v>0.262</v>
-      </c>
-      <c r="C36" s="123" t="s">
-        <v>82</v>
+        <v>-1.731</v>
+      </c>
+      <c r="C36" s="127" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="37">
@@ -1747,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="124" t="s">
-        <v>82</v>
+        <v>70</v>
+      </c>
+      <c r="C37" s="128" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -1758,10 +1841,10 @@
         <v>19</v>
       </c>
       <c r="B38" s="42" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="C38" s="125" t="s">
-        <v>82</v>
+        <v>-1.387</v>
+      </c>
+      <c r="C38" s="129" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="39">
@@ -1769,21 +1852,21 @@
         <v>0</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="126" t="s">
-        <v>82</v>
+        <v>71</v>
+      </c>
+      <c r="C39" s="130" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="127" t="s">
-        <v>82</v>
+      <c r="B40" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="131" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="41">
@@ -1791,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="128" t="s">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="C41" s="132" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="42">
@@ -1802,10 +1885,10 @@
         <v>21</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>0.192</v>
-      </c>
-      <c r="C42" s="129" t="s">
-        <v>82</v>
+        <v>-1.6</v>
+      </c>
+      <c r="C42" s="133" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="43">
@@ -1813,10 +1896,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="130" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="C43" s="134" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="44">
@@ -1824,10 +1907,10 @@
         <v>22</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>0.208</v>
-      </c>
-      <c r="C44" s="131" t="s">
-        <v>82</v>
+        <v>-1.591</v>
+      </c>
+      <c r="C44" s="135" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="45">
@@ -1835,10 +1918,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="132" t="s">
-        <v>82</v>
+        <v>75</v>
+      </c>
+      <c r="C45" s="136" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="46">
@@ -1846,10 +1929,10 @@
         <v>23</v>
       </c>
       <c r="B46" s="50" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="C46" s="133" t="s">
-        <v>82</v>
+        <v>-1.447</v>
+      </c>
+      <c r="C46" s="137" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="47">
@@ -1857,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="134" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="C47" s="138" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="48">
@@ -1868,10 +1951,10 @@
         <v>24</v>
       </c>
       <c r="B48" s="52" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="C48" s="135" t="s">
-        <v>82</v>
+        <v>-1.589</v>
+      </c>
+      <c r="C48" s="139" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="49">
@@ -1879,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="136" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="C49" s="140" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="50">
@@ -1890,10 +1973,10 @@
         <v>25</v>
       </c>
       <c r="B50" s="54" t="n">
-        <v>0.192</v>
-      </c>
-      <c r="C50" s="137" t="s">
-        <v>82</v>
+        <v>-1.581</v>
+      </c>
+      <c r="C50" s="141" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="51">
@@ -1901,10 +1984,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="138" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="C51" s="142" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="52">
@@ -1912,10 +1995,10 @@
         <v>26</v>
       </c>
       <c r="B52" s="56" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="C52" s="139" t="s">
-        <v>82</v>
+        <v>-1.463</v>
+      </c>
+      <c r="C52" s="143" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="53">
@@ -1923,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="140" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="C53" s="144" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="54">
@@ -1934,10 +2017,10 @@
         <v>27</v>
       </c>
       <c r="B54" s="58" t="n">
-        <v>-0.425</v>
-      </c>
-      <c r="C54" s="141" t="s">
-        <v>82</v>
+        <v>-1.424</v>
+      </c>
+      <c r="C54" s="145" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="55">
@@ -1945,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="142" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="C55" s="146" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="56">
@@ -1956,10 +2039,10 @@
         <v>28</v>
       </c>
       <c r="B56" s="60" t="n">
-        <v>-0.365</v>
-      </c>
-      <c r="C56" s="143" t="s">
-        <v>82</v>
+        <v>-1.45</v>
+      </c>
+      <c r="C56" s="147" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="57">
@@ -1967,21 +2050,21 @@
         <v>0</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="144" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="C57" s="148" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="62" t="n">
-        <v>-0.171</v>
-      </c>
-      <c r="C58" s="145" t="s">
+      <c r="B58" s="62" t="s">
         <v>82</v>
+      </c>
+      <c r="C58" s="149" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="59">
@@ -1989,21 +2072,21 @@
         <v>0</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="146" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="C59" s="150" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="64" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="C60" s="147" t="s">
-        <v>82</v>
+      <c r="B60" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="151" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="61">
@@ -2011,21 +2094,21 @@
         <v>0</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="148" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="C61" s="152" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="66" t="n">
-        <v>0.203</v>
-      </c>
-      <c r="C62" s="149" t="s">
-        <v>82</v>
+      <c r="B62" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="153" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="63">
@@ -2033,21 +2116,21 @@
         <v>0</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="150" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="C63" s="154" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="68" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="C64" s="151" t="s">
-        <v>82</v>
+      <c r="B64" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="155" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="65">
@@ -2055,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="152" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="C65" s="156" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="66">
@@ -2066,10 +2149,10 @@
         <v>33</v>
       </c>
       <c r="B66" s="70" t="n">
-        <v>-0.231</v>
-      </c>
-      <c r="C66" s="153" t="s">
-        <v>82</v>
+        <v>-1.535</v>
+      </c>
+      <c r="C66" s="157" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="67">
@@ -2077,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="154" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="C67" s="158" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="68">
@@ -2088,10 +2171,10 @@
         <v>34</v>
       </c>
       <c r="B68" s="72" t="n">
-        <v>-0.339</v>
-      </c>
-      <c r="C68" s="155" t="s">
-        <v>82</v>
+        <v>-1.616</v>
+      </c>
+      <c r="C68" s="159" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="69">
@@ -2099,21 +2182,21 @@
         <v>0</v>
       </c>
       <c r="B69" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" s="156" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="C69" s="160" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="74" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="C70" s="157" t="s">
-        <v>82</v>
+      <c r="B70" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="161" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="71">
@@ -2121,21 +2204,21 @@
         <v>0</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="C71" s="158" t="s">
-        <v>82</v>
+        <v>88</v>
+      </c>
+      <c r="C71" s="162" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B72" s="76" t="n">
-        <v>-0.423</v>
-      </c>
-      <c r="C72" s="159" t="s">
-        <v>82</v>
+      <c r="B72" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="163" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="73">
@@ -2143,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="B73" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" s="160" t="s">
-        <v>82</v>
+        <v>90</v>
+      </c>
+      <c r="C73" s="164" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="74">
@@ -2154,10 +2237,10 @@
         <v>37</v>
       </c>
       <c r="B74" s="78" t="n">
-        <v>-0.226</v>
-      </c>
-      <c r="C74" s="161" t="s">
-        <v>82</v>
+        <v>-1.767</v>
+      </c>
+      <c r="C74" s="165" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="75">
@@ -2165,21 +2248,21 @@
         <v>0</v>
       </c>
       <c r="B75" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" s="162" t="s">
-        <v>82</v>
+        <v>91</v>
+      </c>
+      <c r="C75" s="166" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B76" s="80" t="n">
-        <v>-0.305</v>
-      </c>
-      <c r="C76" s="163" t="s">
-        <v>82</v>
+      <c r="B76" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="167" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="77">
@@ -2187,21 +2270,21 @@
         <v>0</v>
       </c>
       <c r="B77" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" s="164" t="s">
-        <v>82</v>
+        <v>91</v>
+      </c>
+      <c r="C77" s="168" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="82" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="C78" s="165" t="s">
-        <v>82</v>
+      <c r="B78" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="169" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="79">
@@ -2209,77 +2292,121 @@
         <v>0</v>
       </c>
       <c r="B79" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" s="166" t="s">
-        <v>82</v>
+        <v>94</v>
+      </c>
+      <c r="C79" s="170" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="84" t="n">
-        <v>540</v>
-      </c>
-      <c r="C80" s="167" t="s">
-        <v>82</v>
+      <c r="B80" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="171" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B81" s="85" t="n">
-        <v>0.108</v>
-      </c>
-      <c r="C81" s="168" t="n">
-        <v>0.108</v>
+        <v>0</v>
+      </c>
+      <c r="B81" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="172" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B82" s="86" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C82" s="169" t="n">
-        <v>0.04</v>
+        <v>-1.709</v>
+      </c>
+      <c r="C82" s="173" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="174" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" s="88" t="n">
+        <v>764</v>
+      </c>
+      <c r="C84" s="175" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B83" s="87" t="n">
-        <v>1.598</v>
-      </c>
-      <c r="C83" s="170" t="n">
-        <v>1.598</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="s">
+      <c r="B85" s="89" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="C85" s="176" t="n">
+        <v>0.118</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="88" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="C84" s="171" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="4" t="s">
+      <c r="B86" s="90" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="C86" s="177" t="n">
+        <v>0.069</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
+      <c r="B87" s="91" t="n">
+        <v>2.423</v>
+      </c>
+      <c r="C87" s="178" t="n">
+        <v>2.423</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" s="179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A89:C89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/IRR_ols3.xlsx
+++ b/IRR_ols3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,22 +20,22 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">poly(Fund_GeoHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_GeoHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_StageHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_StageHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_PIGHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_PIGHHI, 2)2</t>
+    <t xml:space="preserve">poly(LFund_GeoHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_GeoHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_StageHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_StageHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_PIGHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_PIGHHI, 2)2</t>
   </si>
   <si>
     <t xml:space="preserve">Number_Investments</t>
@@ -44,9 +44,6 @@
     <t xml:space="preserve">Total_Investments</t>
   </si>
   <si>
-    <t xml:space="preserve">Deal_Size</t>
-  </si>
-  <si>
     <t xml:space="preserve">as.factor(Deal_Year)1982</t>
   </si>
   <si>
@@ -161,164 +158,125 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.892 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.863)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.073)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.097 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.987)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.112)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.991)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.498)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.132)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003 **</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.001)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.000)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.056)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.055)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.053)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.453 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.057)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.215)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.912)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.902)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.895)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.898)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.783 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.880)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.888)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.882)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.878)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.876)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.873)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.869)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.868)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.866)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.082 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.029 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.870)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.862 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.752 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.949 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.885)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.038 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.889)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.913)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.019 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.004 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.964)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.083 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.945)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.922)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       </t>
+    <t xml:space="preserve">(0.544)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.643 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.658)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.619)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.676)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.555 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.622)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.280 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.926)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.103 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.699)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.001)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.000)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.665)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.664)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.766)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.575)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.569)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.564)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.566)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.555)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.560)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.554)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.552)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.549)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.547)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.546)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.545)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.548)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.551)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.557)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.553)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.565)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.607)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.595)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.581)   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="173">
+  <numFmts count="84">
     <numFmt numFmtId="50000" formatCode="0.000"/>
     <numFmt numFmtId="50001" formatCode="0.000"/>
     <numFmt numFmtId="50002" formatCode="0.000"/>
@@ -403,95 +361,6 @@
     <numFmt numFmtId="50081" formatCode="0.000"/>
     <numFmt numFmtId="50082" formatCode="0.000"/>
     <numFmt numFmtId="50083" formatCode="0.000"/>
-    <numFmt numFmtId="50084" formatCode="0.000"/>
-    <numFmt numFmtId="50085" formatCode="0.000"/>
-    <numFmt numFmtId="50086" formatCode="0.000"/>
-    <numFmt numFmtId="50087" formatCode="0.000"/>
-    <numFmt numFmtId="50088" formatCode="0.000"/>
-    <numFmt numFmtId="50089" formatCode="0.000"/>
-    <numFmt numFmtId="50090" formatCode="0.000"/>
-    <numFmt numFmtId="50091" formatCode="0.000"/>
-    <numFmt numFmtId="50092" formatCode="0.000"/>
-    <numFmt numFmtId="50093" formatCode="0.000"/>
-    <numFmt numFmtId="50094" formatCode="0.000"/>
-    <numFmt numFmtId="50095" formatCode="0.000"/>
-    <numFmt numFmtId="50096" formatCode="0.000"/>
-    <numFmt numFmtId="50097" formatCode="0.000"/>
-    <numFmt numFmtId="50098" formatCode="0.000"/>
-    <numFmt numFmtId="50099" formatCode="0.000"/>
-    <numFmt numFmtId="50100" formatCode="0.000"/>
-    <numFmt numFmtId="50101" formatCode="0.000"/>
-    <numFmt numFmtId="50102" formatCode="0.000"/>
-    <numFmt numFmtId="50103" formatCode="0.000"/>
-    <numFmt numFmtId="50104" formatCode="0.000"/>
-    <numFmt numFmtId="50105" formatCode="0.000"/>
-    <numFmt numFmtId="50106" formatCode="0.000"/>
-    <numFmt numFmtId="50107" formatCode="0.000"/>
-    <numFmt numFmtId="50108" formatCode="0.000"/>
-    <numFmt numFmtId="50109" formatCode="0.000"/>
-    <numFmt numFmtId="50110" formatCode="0.000"/>
-    <numFmt numFmtId="50111" formatCode="0.000"/>
-    <numFmt numFmtId="50112" formatCode="0.000"/>
-    <numFmt numFmtId="50113" formatCode="0.000"/>
-    <numFmt numFmtId="50114" formatCode="0.000"/>
-    <numFmt numFmtId="50115" formatCode="0.000"/>
-    <numFmt numFmtId="50116" formatCode="0.000"/>
-    <numFmt numFmtId="50117" formatCode="0.000"/>
-    <numFmt numFmtId="50118" formatCode="0.000"/>
-    <numFmt numFmtId="50119" formatCode="0.000"/>
-    <numFmt numFmtId="50120" formatCode="0.000"/>
-    <numFmt numFmtId="50121" formatCode="0.000"/>
-    <numFmt numFmtId="50122" formatCode="0.000"/>
-    <numFmt numFmtId="50123" formatCode="0.000"/>
-    <numFmt numFmtId="50124" formatCode="0.000"/>
-    <numFmt numFmtId="50125" formatCode="0.000"/>
-    <numFmt numFmtId="50126" formatCode="0.000"/>
-    <numFmt numFmtId="50127" formatCode="0.000"/>
-    <numFmt numFmtId="50128" formatCode="0.000"/>
-    <numFmt numFmtId="50129" formatCode="0.000"/>
-    <numFmt numFmtId="50130" formatCode="0.000"/>
-    <numFmt numFmtId="50131" formatCode="0.000"/>
-    <numFmt numFmtId="50132" formatCode="0.000"/>
-    <numFmt numFmtId="50133" formatCode="0.000"/>
-    <numFmt numFmtId="50134" formatCode="0.000"/>
-    <numFmt numFmtId="50135" formatCode="0.000"/>
-    <numFmt numFmtId="50136" formatCode="0.000"/>
-    <numFmt numFmtId="50137" formatCode="0.000"/>
-    <numFmt numFmtId="50138" formatCode="0.000"/>
-    <numFmt numFmtId="50139" formatCode="0.000"/>
-    <numFmt numFmtId="50140" formatCode="0.000"/>
-    <numFmt numFmtId="50141" formatCode="0.000"/>
-    <numFmt numFmtId="50142" formatCode="0.000"/>
-    <numFmt numFmtId="50143" formatCode="0.000"/>
-    <numFmt numFmtId="50144" formatCode="0.000"/>
-    <numFmt numFmtId="50145" formatCode="0.000"/>
-    <numFmt numFmtId="50146" formatCode="0.000"/>
-    <numFmt numFmtId="50147" formatCode="0.000"/>
-    <numFmt numFmtId="50148" formatCode="0.000"/>
-    <numFmt numFmtId="50149" formatCode="0.000"/>
-    <numFmt numFmtId="50150" formatCode="0.000"/>
-    <numFmt numFmtId="50151" formatCode="0.000"/>
-    <numFmt numFmtId="50152" formatCode="0.000"/>
-    <numFmt numFmtId="50153" formatCode="0.000"/>
-    <numFmt numFmtId="50154" formatCode="0.000"/>
-    <numFmt numFmtId="50155" formatCode="0.000"/>
-    <numFmt numFmtId="50156" formatCode="0.000"/>
-    <numFmt numFmtId="50157" formatCode="0.000"/>
-    <numFmt numFmtId="50158" formatCode="0.000"/>
-    <numFmt numFmtId="50159" formatCode="0.000"/>
-    <numFmt numFmtId="50160" formatCode="0.000"/>
-    <numFmt numFmtId="50161" formatCode="0.000"/>
-    <numFmt numFmtId="50162" formatCode="0.000"/>
-    <numFmt numFmtId="50163" formatCode="0.000"/>
-    <numFmt numFmtId="50164" formatCode="0.000"/>
-    <numFmt numFmtId="50165" formatCode="0.000"/>
-    <numFmt numFmtId="50166" formatCode="0.000"/>
-    <numFmt numFmtId="50167" formatCode="0.000"/>
-    <numFmt numFmtId="50168" formatCode="0.000"/>
-    <numFmt numFmtId="50169" formatCode="0.000"/>
-    <numFmt numFmtId="50170" formatCode="0.000"/>
-    <numFmt numFmtId="50171" formatCode="0.000"/>
-    <numFmt numFmtId="50172" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -597,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -851,289 +720,22 @@
     <xf numFmtId="50078" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50079" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50079" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50080" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50081" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50081" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50082" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50083" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50084" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50085" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50086" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50087" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50088" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50089" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50090" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50091" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50092" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50093" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50094" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50095" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50096" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50097" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50098" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50099" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50100" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50101" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50102" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50103" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50104" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50105" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50106" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50107" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50108" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50109" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50110" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50111" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50112" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50113" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50114" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50115" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50116" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50117" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50118" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50119" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50120" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50121" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50122" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50123" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50124" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50125" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50126" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50127" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50128" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50129" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50130" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50131" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50132" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50133" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50134" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50135" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50136" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50137" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50138" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50139" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50140" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50141" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50142" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50143" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50144" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50145" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50146" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50147" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50148" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50149" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50150" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50151" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50152" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50153" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50154" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50155" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50156" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50157" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50158" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50159" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50160" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50161" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50162" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50163" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50164" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50165" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50166" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50167" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50168" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50169" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50170" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50171" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50172" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50083" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1434,21 +1036,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="93" t="s">
-        <v>99</v>
+      <c r="B2" s="6" t="n">
+        <v>0.928</v>
       </c>
     </row>
     <row r="3">
@@ -1456,21 +1052,15 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="94" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>1.416</v>
-      </c>
-      <c r="C4" s="95" t="n">
-        <v>1.416</v>
+      <c r="B4" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -1478,21 +1068,15 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="97" t="s">
-        <v>52</v>
+      <c r="B6" s="10" t="n">
+        <v>1.054</v>
       </c>
     </row>
     <row r="7">
@@ -1500,10 +1084,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -1511,10 +1092,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>-1.779</v>
-      </c>
-      <c r="C8" s="99" t="n">
-        <v>-1.779</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="9">
@@ -1522,21 +1100,15 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="n">
-        <v>1.663</v>
-      </c>
-      <c r="C10" s="101" t="n">
-        <v>1.663</v>
+      <c r="B10" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -1544,21 +1116,15 @@
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="102" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="16" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="C12" s="103" t="n">
-        <v>0.456</v>
+      <c r="B12" s="16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -1566,9 +1132,6 @@
         <v>0</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="104" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1576,11 +1139,8 @@
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="18" t="n">
-        <v>1.724</v>
-      </c>
-      <c r="C14" s="105" t="n">
-        <v>1.724</v>
+      <c r="B14" s="18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -1588,10 +1148,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
@@ -1599,10 +1156,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
@@ -1610,10 +1164,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -1621,10 +1172,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
@@ -1632,10 +1180,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="110" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
@@ -1643,10 +1188,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="111" t="n">
-        <v>0</v>
+        <v>-0.109</v>
       </c>
     </row>
     <row r="21">
@@ -1654,10 +1196,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="112" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -1665,10 +1204,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-1.654</v>
-      </c>
-      <c r="C22" s="113" t="s">
-        <v>99</v>
+        <v>-0.234</v>
       </c>
     </row>
     <row r="23">
@@ -1676,10 +1212,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="114" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
@@ -1687,10 +1220,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-1.897</v>
-      </c>
-      <c r="C24" s="115" t="s">
-        <v>99</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="25">
@@ -1698,10 +1228,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="116" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
@@ -1709,10 +1236,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="30" t="n">
-        <v>-1.883</v>
-      </c>
-      <c r="C26" s="117" t="s">
-        <v>99</v>
+        <v>-0.457</v>
       </c>
     </row>
     <row r="27">
@@ -1720,21 +1244,15 @@
         <v>0</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="118" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="119" t="s">
-        <v>99</v>
+      <c r="B28" s="32" t="n">
+        <v>-0.261</v>
       </c>
     </row>
     <row r="29">
@@ -1742,10 +1260,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="120" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30">
@@ -1753,10 +1268,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="34" t="n">
-        <v>-1.938</v>
-      </c>
-      <c r="C30" s="121" t="s">
-        <v>99</v>
+        <v>-0.074</v>
       </c>
     </row>
     <row r="31">
@@ -1764,10 +1276,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="122" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32">
@@ -1775,10 +1284,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="36" t="n">
-        <v>-1.712</v>
-      </c>
-      <c r="C32" s="123" t="s">
-        <v>99</v>
+        <v>-0.101</v>
       </c>
     </row>
     <row r="33">
@@ -1786,10 +1292,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="124" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34">
@@ -1797,10 +1300,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="38" t="n">
-        <v>-1.684</v>
-      </c>
-      <c r="C34" s="125" t="s">
-        <v>99</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="35">
@@ -1808,10 +1308,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="126" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36">
@@ -1819,10 +1316,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="40" t="n">
-        <v>-1.731</v>
-      </c>
-      <c r="C36" s="127" t="s">
-        <v>99</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="37">
@@ -1830,10 +1324,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="128" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38">
@@ -1841,10 +1332,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="42" t="n">
-        <v>-1.387</v>
-      </c>
-      <c r="C38" s="129" t="s">
-        <v>99</v>
+        <v>-0.108</v>
       </c>
     </row>
     <row r="39">
@@ -1852,21 +1340,15 @@
         <v>0</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="130" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="131" t="s">
-        <v>99</v>
+      <c r="B40" s="44" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="41">
@@ -1874,10 +1356,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="132" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42">
@@ -1885,10 +1364,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="C42" s="133" t="s">
-        <v>99</v>
+        <v>0.069</v>
       </c>
     </row>
     <row r="43">
@@ -1896,10 +1372,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="134" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
@@ -1907,10 +1380,7 @@
         <v>22</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>-1.591</v>
-      </c>
-      <c r="C44" s="135" t="s">
-        <v>99</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="45">
@@ -1918,10 +1388,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="136" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46">
@@ -1929,10 +1396,7 @@
         <v>23</v>
       </c>
       <c r="B46" s="50" t="n">
-        <v>-1.447</v>
-      </c>
-      <c r="C46" s="137" t="s">
-        <v>99</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="47">
@@ -1940,10 +1404,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="138" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48">
@@ -1951,10 +1412,7 @@
         <v>24</v>
       </c>
       <c r="B48" s="52" t="n">
-        <v>-1.589</v>
-      </c>
-      <c r="C48" s="139" t="s">
-        <v>99</v>
+        <v>-0.151</v>
       </c>
     </row>
     <row r="49">
@@ -1962,10 +1420,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="140" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
@@ -1973,10 +1428,7 @@
         <v>25</v>
       </c>
       <c r="B50" s="54" t="n">
-        <v>-1.581</v>
-      </c>
-      <c r="C50" s="141" t="s">
-        <v>99</v>
+        <v>-0.031</v>
       </c>
     </row>
     <row r="51">
@@ -1984,10 +1436,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="142" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
@@ -1995,10 +1444,7 @@
         <v>26</v>
       </c>
       <c r="B52" s="56" t="n">
-        <v>-1.463</v>
-      </c>
-      <c r="C52" s="143" t="s">
-        <v>99</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="53">
@@ -2006,10 +1452,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="144" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54">
@@ -2017,10 +1460,7 @@
         <v>27</v>
       </c>
       <c r="B54" s="58" t="n">
-        <v>-1.424</v>
-      </c>
-      <c r="C54" s="145" t="s">
-        <v>99</v>
+        <v>-0.027</v>
       </c>
     </row>
     <row r="55">
@@ -2028,10 +1468,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="146" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
@@ -2039,10 +1476,7 @@
         <v>28</v>
       </c>
       <c r="B56" s="60" t="n">
-        <v>-1.45</v>
-      </c>
-      <c r="C56" s="147" t="s">
-        <v>99</v>
+        <v>-0.402</v>
       </c>
     </row>
     <row r="57">
@@ -2050,21 +1484,15 @@
         <v>0</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="148" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" s="149" t="s">
-        <v>99</v>
+      <c r="B58" s="62" t="n">
+        <v>-0.293</v>
       </c>
     </row>
     <row r="59">
@@ -2072,21 +1500,15 @@
         <v>0</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="150" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="151" t="s">
-        <v>99</v>
+      <c r="B60" s="64" t="n">
+        <v>-0.346</v>
       </c>
     </row>
     <row r="61">
@@ -2094,21 +1516,15 @@
         <v>0</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="152" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="153" t="s">
-        <v>99</v>
+      <c r="B62" s="66" t="n">
+        <v>-0.219</v>
       </c>
     </row>
     <row r="63">
@@ -2116,21 +1532,15 @@
         <v>0</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="154" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="155" t="s">
-        <v>99</v>
+      <c r="B64" s="68" t="n">
+        <v>-0.183</v>
       </c>
     </row>
     <row r="65">
@@ -2138,10 +1548,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="156" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
@@ -2149,10 +1556,7 @@
         <v>33</v>
       </c>
       <c r="B66" s="70" t="n">
-        <v>-1.535</v>
-      </c>
-      <c r="C66" s="157" t="s">
-        <v>99</v>
+        <v>-0.083</v>
       </c>
     </row>
     <row r="67">
@@ -2160,10 +1564,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" s="158" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
@@ -2171,10 +1572,7 @@
         <v>34</v>
       </c>
       <c r="B68" s="72" t="n">
-        <v>-1.616</v>
-      </c>
-      <c r="C68" s="159" t="s">
-        <v>99</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="69">
@@ -2182,21 +1580,15 @@
         <v>0</v>
       </c>
       <c r="B69" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" s="160" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70" s="161" t="s">
-        <v>99</v>
+      <c r="B70" s="74" t="n">
+        <v>-0.356</v>
       </c>
     </row>
     <row r="71">
@@ -2204,21 +1596,15 @@
         <v>0</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="162" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B72" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="C72" s="163" t="s">
-        <v>99</v>
+      <c r="B72" s="76" t="n">
+        <v>-0.373</v>
       </c>
     </row>
     <row r="73">
@@ -2226,10 +1612,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" s="164" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74">
@@ -2237,10 +1620,7 @@
         <v>37</v>
       </c>
       <c r="B74" s="78" t="n">
-        <v>-1.767</v>
-      </c>
-      <c r="C74" s="165" t="s">
-        <v>99</v>
+        <v>-0.278</v>
       </c>
     </row>
     <row r="75">
@@ -2248,21 +1628,15 @@
         <v>0</v>
       </c>
       <c r="B75" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" s="166" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B76" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="167" t="s">
-        <v>99</v>
+      <c r="B76" s="80" t="n">
+        <v>-0.277</v>
       </c>
     </row>
     <row r="77">
@@ -2270,21 +1644,15 @@
         <v>0</v>
       </c>
       <c r="B77" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="C77" s="168" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="C78" s="169" t="s">
-        <v>99</v>
+      <c r="B78" s="82" t="n">
+        <v>-0.352</v>
       </c>
     </row>
     <row r="79">
@@ -2292,21 +1660,15 @@
         <v>0</v>
       </c>
       <c r="B79" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="C79" s="170" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" s="171" t="s">
-        <v>99</v>
+      <c r="B80" s="84" t="n">
+        <v>-0.066</v>
       </c>
     </row>
     <row r="81">
@@ -2314,10 +1676,7 @@
         <v>0</v>
       </c>
       <c r="B81" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="C81" s="172" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82">
@@ -2325,88 +1684,50 @@
         <v>41</v>
       </c>
       <c r="B82" s="86" t="n">
-        <v>-1.709</v>
-      </c>
-      <c r="C82" s="173" t="s">
-        <v>99</v>
+        <v>909</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="C83" s="174" t="s">
-        <v>99</v>
+        <v>42</v>
+      </c>
+      <c r="B83" s="87" t="n">
+        <v>0.137</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B84" s="88" t="n">
-        <v>764</v>
-      </c>
-      <c r="C84" s="175" t="s">
-        <v>99</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B85" s="89" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="C85" s="176" t="n">
-        <v>0.118</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="s">
-        <v>44</v>
+      <c r="A86" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B86" s="90" t="n">
-        <v>0.069</v>
-      </c>
-      <c r="C86" s="177" t="n">
-        <v>0.069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B87" s="91" t="n">
-        <v>2.423</v>
-      </c>
-      <c r="C87" s="178" t="n">
-        <v>2.423</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B88" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" s="179" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
+      <c r="B87" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A87:B87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/IRR_ols3.xlsx
+++ b/IRR_ols3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,22 +20,22 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">poly(LFund_GeoHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_GeoHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_StageHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_StageHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_PIGHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_PIGHHI, 2)2</t>
+    <t xml:space="preserve">poly(Fund_GeoHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_GeoHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_StageHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_StageHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_PIGHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_PIGHHI, 2)2</t>
   </si>
   <si>
     <t xml:space="preserve">Number_Investments</t>
@@ -44,6 +44,12 @@
     <t xml:space="preserve">Total_Investments</t>
   </si>
   <si>
+    <t xml:space="preserve">Deal_Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1981</t>
+  </si>
+  <si>
     <t xml:space="preserve">as.factor(Deal_Year)1982</t>
   </si>
   <si>
@@ -158,37 +164,37 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
+    <t xml:space="preserve">2.098 ***</t>
+  </si>
+  <si>
     <t xml:space="preserve">(0.544)   </t>
   </si>
   <si>
-    <t xml:space="preserve">1.643 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.658)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.619)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.676)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.555 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.622)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.280 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.926)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.103 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.699)   </t>
+    <t xml:space="preserve">1.672 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.657)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.620)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.679)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.587 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.334 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.941)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.119 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.713)   </t>
   </si>
   <si>
     <t xml:space="preserve">0.002 ** </t>
@@ -203,80 +209,173 @@
     <t xml:space="preserve">(0.000)   </t>
   </si>
   <si>
+    <t xml:space="preserve">(0.766)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.666)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.403 *  </t>
+  </si>
+  <si>
     <t xml:space="preserve">(0.665)   </t>
   </si>
   <si>
+    <t xml:space="preserve">-1.401 *  </t>
+  </si>
+  <si>
     <t xml:space="preserve">(0.664)   </t>
   </si>
   <si>
-    <t xml:space="preserve">(0.766)   </t>
+    <t xml:space="preserve">-1.637 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.245 *  </t>
   </si>
   <si>
     <t xml:space="preserve">(0.575)   </t>
   </si>
   <si>
+    <t xml:space="preserve">-1.271 *  </t>
+  </si>
+  <si>
     <t xml:space="preserve">(0.569)   </t>
   </si>
   <si>
+    <t xml:space="preserve">-1.263 *  </t>
+  </si>
+  <si>
     <t xml:space="preserve">(0.564)   </t>
   </si>
   <si>
     <t xml:space="preserve">(0.566)   </t>
   </si>
   <si>
+    <t xml:space="preserve">-1.280 *  </t>
+  </si>
+  <si>
     <t xml:space="preserve">(0.555)   </t>
   </si>
   <si>
+    <t xml:space="preserve">-1.183 *  </t>
+  </si>
+  <si>
     <t xml:space="preserve">(0.560)   </t>
   </si>
   <si>
+    <t xml:space="preserve">-1.102 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.556)   </t>
+  </si>
+  <si>
     <t xml:space="preserve">(0.554)   </t>
   </si>
   <si>
-    <t xml:space="preserve">(0.552)   </t>
+    <t xml:space="preserve">-1.192 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.553)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.321 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.550)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.201 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.547)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.091 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.197 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.545)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.572 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.462 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.548)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.516 ** </t>
   </si>
   <si>
     <t xml:space="preserve">(0.549)   </t>
   </si>
   <si>
-    <t xml:space="preserve">(0.547)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.546)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.545)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.548)   </t>
+    <t xml:space="preserve">-1.389 *  </t>
   </si>
   <si>
     <t xml:space="preserve">(0.551)   </t>
   </si>
   <si>
+    <t xml:space="preserve">-1.356 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.255 *  </t>
+  </si>
+  <si>
     <t xml:space="preserve">(0.557)   </t>
   </si>
   <si>
-    <t xml:space="preserve">(0.553)   </t>
+    <t xml:space="preserve">-1.581 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.529 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.558)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.546 ** </t>
   </si>
   <si>
     <t xml:space="preserve">(0.565)   </t>
   </si>
   <si>
-    <t xml:space="preserve">(0.607)   </t>
+    <t xml:space="preserve">-1.449 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.450 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.608)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.525 *  </t>
   </si>
   <si>
     <t xml:space="preserve">(0.595)   </t>
   </si>
   <si>
+    <t xml:space="preserve">-1.238 *  </t>
+  </si>
+  <si>
     <t xml:space="preserve">(0.581)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="84">
+  <numFmts count="177">
     <numFmt numFmtId="50000" formatCode="0.000"/>
     <numFmt numFmtId="50001" formatCode="0.000"/>
     <numFmt numFmtId="50002" formatCode="0.000"/>
@@ -361,6 +460,99 @@
     <numFmt numFmtId="50081" formatCode="0.000"/>
     <numFmt numFmtId="50082" formatCode="0.000"/>
     <numFmt numFmtId="50083" formatCode="0.000"/>
+    <numFmt numFmtId="50084" formatCode="0.000"/>
+    <numFmt numFmtId="50085" formatCode="0.000"/>
+    <numFmt numFmtId="50086" formatCode="0.000"/>
+    <numFmt numFmtId="50087" formatCode="0.000"/>
+    <numFmt numFmtId="50088" formatCode="0.000"/>
+    <numFmt numFmtId="50089" formatCode="0.000"/>
+    <numFmt numFmtId="50090" formatCode="0.000"/>
+    <numFmt numFmtId="50091" formatCode="0.000"/>
+    <numFmt numFmtId="50092" formatCode="0.000"/>
+    <numFmt numFmtId="50093" formatCode="0.000"/>
+    <numFmt numFmtId="50094" formatCode="0.000"/>
+    <numFmt numFmtId="50095" formatCode="0.000"/>
+    <numFmt numFmtId="50096" formatCode="0.000"/>
+    <numFmt numFmtId="50097" formatCode="0.000"/>
+    <numFmt numFmtId="50098" formatCode="0.000"/>
+    <numFmt numFmtId="50099" formatCode="0.000"/>
+    <numFmt numFmtId="50100" formatCode="0.000"/>
+    <numFmt numFmtId="50101" formatCode="0.000"/>
+    <numFmt numFmtId="50102" formatCode="0.000"/>
+    <numFmt numFmtId="50103" formatCode="0.000"/>
+    <numFmt numFmtId="50104" formatCode="0.000"/>
+    <numFmt numFmtId="50105" formatCode="0.000"/>
+    <numFmt numFmtId="50106" formatCode="0.000"/>
+    <numFmt numFmtId="50107" formatCode="0.000"/>
+    <numFmt numFmtId="50108" formatCode="0.000"/>
+    <numFmt numFmtId="50109" formatCode="0.000"/>
+    <numFmt numFmtId="50110" formatCode="0.000"/>
+    <numFmt numFmtId="50111" formatCode="0.000"/>
+    <numFmt numFmtId="50112" formatCode="0.000"/>
+    <numFmt numFmtId="50113" formatCode="0.000"/>
+    <numFmt numFmtId="50114" formatCode="0.000"/>
+    <numFmt numFmtId="50115" formatCode="0.000"/>
+    <numFmt numFmtId="50116" formatCode="0.000"/>
+    <numFmt numFmtId="50117" formatCode="0.000"/>
+    <numFmt numFmtId="50118" formatCode="0.000"/>
+    <numFmt numFmtId="50119" formatCode="0.000"/>
+    <numFmt numFmtId="50120" formatCode="0.000"/>
+    <numFmt numFmtId="50121" formatCode="0.000"/>
+    <numFmt numFmtId="50122" formatCode="0.000"/>
+    <numFmt numFmtId="50123" formatCode="0.000"/>
+    <numFmt numFmtId="50124" formatCode="0.000"/>
+    <numFmt numFmtId="50125" formatCode="0.000"/>
+    <numFmt numFmtId="50126" formatCode="0.000"/>
+    <numFmt numFmtId="50127" formatCode="0.000"/>
+    <numFmt numFmtId="50128" formatCode="0.000"/>
+    <numFmt numFmtId="50129" formatCode="0.000"/>
+    <numFmt numFmtId="50130" formatCode="0.000"/>
+    <numFmt numFmtId="50131" formatCode="0.000"/>
+    <numFmt numFmtId="50132" formatCode="0.000"/>
+    <numFmt numFmtId="50133" formatCode="0.000"/>
+    <numFmt numFmtId="50134" formatCode="0.000"/>
+    <numFmt numFmtId="50135" formatCode="0.000"/>
+    <numFmt numFmtId="50136" formatCode="0.000"/>
+    <numFmt numFmtId="50137" formatCode="0.000"/>
+    <numFmt numFmtId="50138" formatCode="0.000"/>
+    <numFmt numFmtId="50139" formatCode="0.000"/>
+    <numFmt numFmtId="50140" formatCode="0.000"/>
+    <numFmt numFmtId="50141" formatCode="0.000"/>
+    <numFmt numFmtId="50142" formatCode="0.000"/>
+    <numFmt numFmtId="50143" formatCode="0.000"/>
+    <numFmt numFmtId="50144" formatCode="0.000"/>
+    <numFmt numFmtId="50145" formatCode="0.000"/>
+    <numFmt numFmtId="50146" formatCode="0.000"/>
+    <numFmt numFmtId="50147" formatCode="0.000"/>
+    <numFmt numFmtId="50148" formatCode="0.000"/>
+    <numFmt numFmtId="50149" formatCode="0.000"/>
+    <numFmt numFmtId="50150" formatCode="0.000"/>
+    <numFmt numFmtId="50151" formatCode="0.000"/>
+    <numFmt numFmtId="50152" formatCode="0.000"/>
+    <numFmt numFmtId="50153" formatCode="0.000"/>
+    <numFmt numFmtId="50154" formatCode="0.000"/>
+    <numFmt numFmtId="50155" formatCode="0.000"/>
+    <numFmt numFmtId="50156" formatCode="0.000"/>
+    <numFmt numFmtId="50157" formatCode="0.000"/>
+    <numFmt numFmtId="50158" formatCode="0.000"/>
+    <numFmt numFmtId="50159" formatCode="0.000"/>
+    <numFmt numFmtId="50160" formatCode="0.000"/>
+    <numFmt numFmtId="50161" formatCode="0.000"/>
+    <numFmt numFmtId="50162" formatCode="0.000"/>
+    <numFmt numFmtId="50163" formatCode="0.000"/>
+    <numFmt numFmtId="50164" formatCode="0.000"/>
+    <numFmt numFmtId="50165" formatCode="0.000"/>
+    <numFmt numFmtId="50166" formatCode="0.000"/>
+    <numFmt numFmtId="50167" formatCode="0.000"/>
+    <numFmt numFmtId="50168" formatCode="0.000"/>
+    <numFmt numFmtId="50169" formatCode="0.000"/>
+    <numFmt numFmtId="50170" formatCode="0.000"/>
+    <numFmt numFmtId="50171" formatCode="0.000"/>
+    <numFmt numFmtId="50172" formatCode="0.000"/>
+    <numFmt numFmtId="50173" formatCode="0.000"/>
+    <numFmt numFmtId="50174" formatCode="0.000"/>
+    <numFmt numFmtId="50175" formatCode="0.000"/>
+    <numFmt numFmtId="50176" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -466,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -720,22 +912,301 @@
     <xf numFmtId="50078" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50079" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50079" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50080" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50081" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50082" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50083" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50080" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50081" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50082" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50083" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50084" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50085" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50086" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50087" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50088" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50089" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50090" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50091" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50092" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50093" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50094" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50095" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50096" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50097" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50098" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50099" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50100" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50101" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50102" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50103" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50104" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50105" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50106" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50107" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50108" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50109" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50110" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50111" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50112" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50113" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50114" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50115" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50116" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50117" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50118" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50119" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50120" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50121" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50122" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50123" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50124" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50125" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50126" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50127" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50128" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50129" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50130" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50131" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50132" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50133" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50134" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50135" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50136" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50137" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50138" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50139" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50140" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50141" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50142" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50143" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50144" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50145" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50146" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50147" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50148" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50149" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50150" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50151" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50152" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50153" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50154" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50155" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50156" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50157" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50158" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50159" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50160" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50161" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50162" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50163" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50164" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50165" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50166" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50167" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50168" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50169" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50170" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50171" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50172" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50173" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50174" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50175" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50176" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1036,15 +1507,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0.928</v>
+      <c r="B2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3">
@@ -1052,7 +1529,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4">
@@ -1060,7 +1540,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -1068,7 +1551,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -1076,7 +1562,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>1.054</v>
+        <v>0.938</v>
+      </c>
+      <c r="C6" s="99" t="n">
+        <v>0.938</v>
       </c>
     </row>
     <row r="7">
@@ -1084,7 +1573,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -1092,7 +1584,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>0.114</v>
+        <v>0.148</v>
+      </c>
+      <c r="C8" s="101" t="n">
+        <v>0.148</v>
       </c>
     </row>
     <row r="9">
@@ -1100,7 +1595,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1108,7 +1606,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -1116,6 +1617,9 @@
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="104" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1124,7 +1628,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="C12" s="105" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -1132,7 +1639,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="C13" s="106" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1140,7 +1650,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15">
@@ -1148,7 +1661,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="C15" s="108" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -1156,7 +1672,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="C16" s="109" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -1164,7 +1683,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="C17" s="110" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1172,7 +1694,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="C18" s="111" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19">
@@ -1180,7 +1705,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="C19" s="112" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -1188,7 +1716,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>-0.109</v>
+        <v>0</v>
+      </c>
+      <c r="C20" s="113" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1196,7 +1727,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C21" s="114" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22">
@@ -1204,7 +1738,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-0.234</v>
+        <v>-1.177</v>
+      </c>
+      <c r="C22" s="115" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="23">
@@ -1212,7 +1749,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="C23" s="116" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="24">
@@ -1220,7 +1760,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-0.23</v>
+        <v>-1.273</v>
+      </c>
+      <c r="C24" s="117" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="25">
@@ -1228,15 +1771,21 @@
         <v>0</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="C25" s="118" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="30" t="n">
-        <v>-0.457</v>
+      <c r="B26" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="119" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="27">
@@ -1244,15 +1793,21 @@
         <v>0</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="C27" s="120" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="32" t="n">
-        <v>-0.261</v>
+      <c r="B28" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="121" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="29">
@@ -1260,15 +1815,21 @@
         <v>0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="C29" s="122" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="34" t="n">
-        <v>-0.074</v>
+      <c r="B30" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="123" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="31">
@@ -1277,6 +1838,9 @@
       </c>
       <c r="B31" s="35" t="s">
         <v>66</v>
+      </c>
+      <c r="C31" s="124" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -1284,7 +1848,10 @@
         <v>16</v>
       </c>
       <c r="B32" s="36" t="n">
-        <v>-0.101</v>
+        <v>-1.438</v>
+      </c>
+      <c r="C32" s="125" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="33">
@@ -1292,15 +1859,21 @@
         <v>0</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="C33" s="126" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="38" t="n">
-        <v>-0.09</v>
+      <c r="B34" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="127" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="35">
@@ -1308,15 +1881,21 @@
         <v>0</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="C35" s="128" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="40" t="n">
-        <v>0.147</v>
+      <c r="B36" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="129" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -1324,15 +1903,21 @@
         <v>0</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="C37" s="130" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="42" t="n">
-        <v>-0.108</v>
+      <c r="B38" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="131" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -1340,7 +1925,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="C39" s="132" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="40">
@@ -1348,7 +1936,10 @@
         <v>20</v>
       </c>
       <c r="B40" s="44" t="n">
-        <v>-0.01</v>
+        <v>-1.022</v>
+      </c>
+      <c r="C40" s="133" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="41">
@@ -1356,15 +1947,21 @@
         <v>0</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>71</v>
+        <v>78</v>
+      </c>
+      <c r="C41" s="134" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="46" t="n">
-        <v>0.069</v>
+      <c r="B42" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="135" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="43">
@@ -1372,15 +1969,21 @@
         <v>0</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>70</v>
+        <v>80</v>
+      </c>
+      <c r="C43" s="136" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="48" t="n">
-        <v>0.105</v>
+      <c r="B44" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="137" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -1388,15 +1991,21 @@
         <v>0</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>72</v>
+        <v>82</v>
+      </c>
+      <c r="C45" s="138" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="50" t="n">
-        <v>-0.02</v>
+      <c r="B46" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="139" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="47">
@@ -1404,7 +2013,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>73</v>
+        <v>84</v>
+      </c>
+      <c r="C47" s="140" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="48">
@@ -1412,7 +2024,10 @@
         <v>24</v>
       </c>
       <c r="B48" s="52" t="n">
-        <v>-0.151</v>
+        <v>-1.064</v>
+      </c>
+      <c r="C48" s="141" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="49">
@@ -1420,15 +2035,21 @@
         <v>0</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>74</v>
+        <v>85</v>
+      </c>
+      <c r="C49" s="142" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="54" t="n">
-        <v>-0.031</v>
+      <c r="B50" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="143" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="51">
@@ -1436,15 +2057,21 @@
         <v>0</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>75</v>
+        <v>87</v>
+      </c>
+      <c r="C51" s="144" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="56" t="n">
-        <v>0.079</v>
+      <c r="B52" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="145" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="53">
@@ -1452,15 +2079,21 @@
         <v>0</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>76</v>
+        <v>89</v>
+      </c>
+      <c r="C53" s="146" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="58" t="n">
-        <v>-0.027</v>
+      <c r="B54" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="147" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="55">
@@ -1468,15 +2101,21 @@
         <v>0</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>77</v>
+        <v>91</v>
+      </c>
+      <c r="C55" s="148" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="60" t="n">
-        <v>-0.402</v>
+      <c r="B56" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="149" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="57">
@@ -1484,15 +2123,21 @@
         <v>0</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>77</v>
+        <v>91</v>
+      </c>
+      <c r="C57" s="150" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="62" t="n">
-        <v>-0.293</v>
+      <c r="B58" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="151" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="59">
@@ -1500,15 +2145,21 @@
         <v>0</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>78</v>
+        <v>94</v>
+      </c>
+      <c r="C59" s="152" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="64" t="n">
-        <v>-0.346</v>
+      <c r="B60" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="153" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="61">
@@ -1516,15 +2167,21 @@
         <v>0</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>78</v>
+        <v>94</v>
+      </c>
+      <c r="C61" s="154" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="66" t="n">
-        <v>-0.219</v>
+      <c r="B62" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="155" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="63">
@@ -1532,15 +2189,21 @@
         <v>0</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>79</v>
+        <v>97</v>
+      </c>
+      <c r="C63" s="156" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="68" t="n">
-        <v>-0.183</v>
+      <c r="B64" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="157" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="65">
@@ -1548,15 +2211,21 @@
         <v>0</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>78</v>
+        <v>99</v>
+      </c>
+      <c r="C65" s="158" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="70" t="n">
-        <v>-0.083</v>
+      <c r="B66" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="159" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="67">
@@ -1564,15 +2233,21 @@
         <v>0</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>80</v>
+        <v>101</v>
+      </c>
+      <c r="C67" s="160" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="72" t="n">
-        <v>-0.41</v>
+      <c r="B68" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="161" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="69">
@@ -1580,15 +2255,21 @@
         <v>0</v>
       </c>
       <c r="B69" s="73" t="s">
-        <v>81</v>
+        <v>99</v>
+      </c>
+      <c r="C69" s="162" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="74" t="n">
-        <v>-0.356</v>
+      <c r="B70" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="163" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="71">
@@ -1596,15 +2277,21 @@
         <v>0</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>80</v>
+        <v>104</v>
+      </c>
+      <c r="C71" s="164" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B72" s="76" t="n">
-        <v>-0.373</v>
+      <c r="B72" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="165" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="73">
@@ -1612,15 +2299,21 @@
         <v>0</v>
       </c>
       <c r="B73" s="77" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="C73" s="166" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="78" t="n">
-        <v>-0.278</v>
+      <c r="B74" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="167" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="75">
@@ -1628,15 +2321,21 @@
         <v>0</v>
       </c>
       <c r="B75" s="79" t="s">
-        <v>67</v>
+        <v>107</v>
+      </c>
+      <c r="C75" s="168" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B76" s="80" t="n">
-        <v>-0.277</v>
+      <c r="B76" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="169" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="77">
@@ -1644,15 +2343,21 @@
         <v>0</v>
       </c>
       <c r="B77" s="81" t="s">
-        <v>83</v>
+        <v>109</v>
+      </c>
+      <c r="C77" s="170" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="82" t="n">
-        <v>-0.352</v>
+      <c r="B78" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="171" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="79">
@@ -1660,15 +2365,21 @@
         <v>0</v>
       </c>
       <c r="B79" s="83" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="C79" s="172" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="84" t="n">
-        <v>-0.066</v>
+      <c r="B80" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="173" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="81">
@@ -1676,58 +2387,121 @@
         <v>0</v>
       </c>
       <c r="B81" s="85" t="s">
-        <v>85</v>
+        <v>112</v>
+      </c>
+      <c r="C81" s="174" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B82" s="86" t="n">
-        <v>909</v>
+      <c r="B82" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="175" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B83" s="87" t="n">
-        <v>0.137</v>
+        <v>0</v>
+      </c>
+      <c r="B83" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="176" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B84" s="88" t="n">
-        <v>0.099</v>
+        <v>42</v>
+      </c>
+      <c r="B84" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" s="177" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" s="178" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="90" t="n">
+        <v>910</v>
+      </c>
+      <c r="C86" s="179" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B85" s="89" t="n">
-        <v>3.55</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="3" t="s">
+      <c r="B87" s="91" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="C87" s="180" t="n">
+        <v>0.144</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B86" s="90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="4" t="s">
+      <c r="B88" s="92" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="C88" s="181" t="n">
+        <v>0.103</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B87" s="4"/>
+      <c r="B89" s="93" t="n">
+        <v>3.551</v>
+      </c>
+      <c r="C89" s="182" t="n">
+        <v>3.551</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" s="183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A91:C91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/IRR_ols3.xlsx
+++ b/IRR_ols3.xlsx
@@ -20,22 +20,22 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">poly(LFund_GeoHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_GeoHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_StageHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_StageHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_PIGHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_PIGHHI, 2)2</t>
+    <t xml:space="preserve">poly(Fund_GeoHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_GeoHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_StageHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_StageHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_PIGHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_PIGHHI, 2)2</t>
   </si>
   <si>
     <t xml:space="preserve">as.factor(Deal_Year)1981</t>
@@ -158,28 +158,28 @@
     <t xml:space="preserve">-0.407 **</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.432 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.314 * </t>
+    <t xml:space="preserve">0.420 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.318 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.431 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.313 * </t>
   </si>
   <si>
     <t xml:space="preserve">-0.409 **</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.361 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.386 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.341 * </t>
+    <t xml:space="preserve">-0.360 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.385 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.340 * </t>
   </si>
   <si>
     <t xml:space="preserve">-0.324 * </t>
@@ -188,49 +188,49 @@
     <t xml:space="preserve">-0.397 * </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.373 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.396 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.358 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.346 * </t>
+    <t xml:space="preserve">-0.372 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.395 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.357 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.344 * </t>
   </si>
   <si>
     <t xml:space="preserve">(0.155)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.167)</t>
+    <t xml:space="preserve">(0.166)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.174)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.173)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.166)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(0.188)</t>
   </si>
   <si>
+    <t xml:space="preserve">(0.162)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.219)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.190)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.189)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.164)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(0.161)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.219)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.190)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.189)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.164)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.162)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.158)</t>
@@ -1036,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="C3" s="51" t="s">
         <v>63</v>
@@ -1047,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>0.199</v>
+        <v>0.222</v>
       </c>
       <c r="C4" s="52" t="s">
         <v>64</v>
@@ -1058,10 +1058,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="n">
-        <v>-0.189</v>
+        <v>-0.183</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1069,10 +1069,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>0.098</v>
+        <v>0.113</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -1113,7 +1113,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>-0.317</v>
+        <v>-0.316</v>
       </c>
       <c r="C10" s="58" t="s">
         <v>69</v>
@@ -1135,7 +1135,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-0.314</v>
+        <v>-0.313</v>
       </c>
       <c r="C12" s="60" t="s">
         <v>70</v>
@@ -1179,10 +1179,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>-0.304</v>
+        <v>-0.303</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -1193,7 +1193,7 @@
         <v>-0.291</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -1201,10 +1201,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-0.235</v>
+        <v>-0.234</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -1223,7 +1223,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>-0.281</v>
+        <v>-0.28</v>
       </c>
       <c r="C20" s="68" t="s">
         <v>74</v>
@@ -1289,7 +1289,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="30" t="n">
-        <v>-0.266</v>
+        <v>-0.265</v>
       </c>
       <c r="C26" s="74" t="s">
         <v>77</v>
@@ -1402,7 +1402,7 @@
         <v>59</v>
       </c>
       <c r="C36" s="84" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
@@ -1413,7 +1413,7 @@
         <v>60</v>
       </c>
       <c r="C37" s="85" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38">
@@ -1421,10 +1421,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="42" t="n">
-        <v>-0.326</v>
+        <v>-0.325</v>
       </c>
       <c r="C38" s="86" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39">
@@ -1443,10 +1443,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="44" t="n">
-        <v>-0.274</v>
+        <v>-0.272</v>
       </c>
       <c r="C40" s="88" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41">
@@ -1487,7 +1487,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>3.436</v>
+        <v>3.435</v>
       </c>
       <c r="C44" s="89" t="s">
         <v>79</v>

--- a/IRR_ols3.xlsx
+++ b/IRR_ols3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -155,100 +155,115 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.407 **</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.420 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.318 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.431 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.313 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.409 **</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.360 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.385 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.340 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.324 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.397 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.372 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.395 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.357 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.344 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.155)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.166)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.174)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.173)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.188)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.162)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.219)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.190)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.189)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.164)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.161)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.158)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.160)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.159)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.157)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.156)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.170)</t>
+    <t xml:space="preserve">1.017 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.484 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.743 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.619 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.425 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.416 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.428 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.507 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.491 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.423 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.420 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.443 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.473 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.421 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.434 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.453 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.480 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.202)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.213)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.221)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.244)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.250)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.220)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.285)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.247)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.214)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.212)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.210)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.211)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.206)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.208)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.207)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.205)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.204)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.203)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.226)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.216)</t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
@@ -1028,7 +1043,7 @@
         <v>47</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -1036,32 +1051,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0.021</v>
+        <v>-0.092</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>0.222</v>
+      <c r="B4" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="n">
-        <v>-0.183</v>
+      <c r="B5" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
@@ -1069,32 +1084,32 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>0.113</v>
+        <v>0.117</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>48</v>
+      <c r="B7" s="11" t="n">
+        <v>0.033</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>49</v>
+      <c r="B8" s="12" t="n">
+        <v>0.033</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -1102,10 +1117,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.253</v>
+        <v>-0.332</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -1113,10 +1128,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>-0.316</v>
+        <v>-0.403</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -1124,10 +1139,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="n">
-        <v>-0.361</v>
+        <v>-0.482</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1135,10 +1150,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-0.313</v>
+        <v>-0.434</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -1149,7 +1164,7 @@
         <v>50</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1157,21 +1172,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>-0.329</v>
+        <v>-0.459</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="n">
-        <v>-0.296</v>
+      <c r="B15" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -1179,21 +1194,21 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>-0.303</v>
+        <v>-0.409</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="n">
-        <v>-0.291</v>
+      <c r="B17" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
@@ -1201,21 +1216,21 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-0.234</v>
+        <v>-0.316</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="23" t="n">
-        <v>-0.3</v>
+      <c r="B19" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
@@ -1223,10 +1238,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>-0.28</v>
+        <v>-0.392</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -1234,10 +1249,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="n">
-        <v>-0.257</v>
+        <v>-0.361</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -1245,10 +1260,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-0.247</v>
+        <v>-0.34</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
@@ -1256,21 +1271,21 @@
         <v>22</v>
       </c>
       <c r="B23" s="27" t="n">
-        <v>-0.273</v>
+        <v>-0.378</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>51</v>
+      <c r="B24" s="28" t="n">
+        <v>-0.365</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
@@ -1278,10 +1293,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="29" t="n">
-        <v>-0.291</v>
+        <v>-0.335</v>
       </c>
       <c r="C25" s="73" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -1289,10 +1304,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="30" t="n">
-        <v>-0.265</v>
+        <v>-0.338</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
@@ -1300,10 +1315,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="n">
-        <v>-0.303</v>
+        <v>-0.355</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
@@ -1311,10 +1326,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
@@ -1322,10 +1337,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C29" s="77" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -1333,10 +1348,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C30" s="78" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
@@ -1344,32 +1359,32 @@
         <v>30</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>55</v>
+      <c r="B32" s="36" t="n">
+        <v>-0.369</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="37" t="s">
-        <v>56</v>
+      <c r="B33" s="37" t="n">
+        <v>-0.395</v>
       </c>
       <c r="C33" s="81" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -1377,10 +1392,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -1388,10 +1403,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C35" s="83" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
@@ -1399,7 +1414,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" s="84" t="s">
         <v>72</v>
@@ -1410,21 +1425,21 @@
         <v>36</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" s="85" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="42" t="n">
-        <v>-0.325</v>
+      <c r="B38" s="42" t="s">
+        <v>62</v>
       </c>
       <c r="C38" s="86" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
@@ -1432,10 +1447,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C39" s="87" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40">
@@ -1443,10 +1458,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="44" t="n">
-        <v>-0.272</v>
+        <v>-0.373</v>
       </c>
       <c r="C40" s="88" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41">
@@ -1454,10 +1469,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="45" t="n">
-        <v>910</v>
+        <v>797</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
@@ -1465,10 +1480,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>0.13</v>
+        <v>0.114</v>
       </c>
       <c r="C42" s="89" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
@@ -1476,10 +1491,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="47" t="n">
-        <v>0.092</v>
+        <v>0.069</v>
       </c>
       <c r="C43" s="89" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44">
@@ -1487,10 +1502,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>3.435</v>
+        <v>2.562</v>
       </c>
       <c r="C44" s="89" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45">
@@ -1501,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="90" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">

--- a/IRR_ols3.xlsx
+++ b/IRR_ols3.xlsx
@@ -155,115 +155,115 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.017 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.484 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.743 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.619 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.425 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.416 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.428 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.507 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.491 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.423 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.420 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.443 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.473 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.421 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.434 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.453 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.480 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.202)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.213)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.221)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.244)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.250)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.220)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.285)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.247)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.214)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.212)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.210)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.211)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.206)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.208)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.207)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.205)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.204)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.203)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.226)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.216)</t>
+    <t xml:space="preserve">1.314 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.071 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.919 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.895 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.781 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.815 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.736 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.728 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.828 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.814 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.909 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.778 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.347)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.365)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.376)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.378)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.412)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.422)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.377)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.491)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.425)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.368)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.364)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.361)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.362)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.355)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.358)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.356)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.354)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.352)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.350)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.349)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.351)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.357)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.389)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.381)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.372)</t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
@@ -1043,7 +1043,7 @@
         <v>47</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -1051,32 +1051,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>-0.092</v>
+        <v>0.179</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>48</v>
+      <c r="B4" s="8" t="n">
+        <v>0.361</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>49</v>
+      <c r="B5" s="9" t="n">
+        <v>-0.578</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -1084,10 +1084,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>0.117</v>
+        <v>0.466</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -1095,21 +1095,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="n">
-        <v>0.033</v>
+        <v>0.316</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="n">
-        <v>0.033</v>
+      <c r="B8" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -1117,10 +1117,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.332</v>
+        <v>-0.529</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -1128,10 +1128,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>-0.403</v>
+        <v>-0.661</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -1139,10 +1139,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="n">
-        <v>-0.482</v>
+        <v>-0.76</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1150,10 +1150,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-0.434</v>
+        <v>-0.662</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -1161,10 +1161,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
@@ -1172,21 +1172,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>-0.459</v>
+        <v>-0.695</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>51</v>
+      <c r="B15" s="19" t="n">
+        <v>-0.625</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -1194,21 +1194,21 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>-0.409</v>
+        <v>-0.638</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>52</v>
+      <c r="B17" s="21" t="n">
+        <v>-0.617</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -1216,21 +1216,21 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-0.316</v>
+        <v>-0.495</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>53</v>
+      <c r="B19" s="23" t="n">
+        <v>-0.636</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
@@ -1238,10 +1238,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>-0.392</v>
+        <v>-0.59</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -1249,10 +1249,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="n">
-        <v>-0.361</v>
+        <v>-0.545</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -1260,10 +1260,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-0.34</v>
+        <v>-0.526</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -1271,10 +1271,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="27" t="n">
-        <v>-0.378</v>
+        <v>-0.582</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -1282,10 +1282,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-0.365</v>
+        <v>-0.671</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -1293,10 +1293,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="29" t="n">
-        <v>-0.335</v>
+        <v>-0.624</v>
       </c>
       <c r="C25" s="73" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -1304,10 +1304,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="30" t="n">
-        <v>-0.338</v>
+        <v>-0.577</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -1315,10 +1315,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="n">
-        <v>-0.355</v>
+        <v>-0.672</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -1326,10 +1326,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
@@ -1337,10 +1337,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C29" s="77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
@@ -1348,7 +1348,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C30" s="78" t="s">
         <v>79</v>
@@ -1359,21 +1359,21 @@
         <v>30</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="36" t="n">
-        <v>-0.369</v>
+      <c r="B32" s="36" t="s">
+        <v>54</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
@@ -1381,10 +1381,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="37" t="n">
-        <v>-0.395</v>
+        <v>-0.696</v>
       </c>
       <c r="C33" s="81" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34">
@@ -1392,10 +1392,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
@@ -1403,10 +1403,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C35" s="83" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
@@ -1414,10 +1414,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C36" s="84" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
@@ -1425,32 +1425,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C37" s="85" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="42" t="s">
-        <v>62</v>
+      <c r="B38" s="42" t="n">
+        <v>-0.702</v>
       </c>
       <c r="C38" s="86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>63</v>
+      <c r="B39" s="43" t="n">
+        <v>-0.743</v>
       </c>
       <c r="C39" s="87" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
@@ -1458,7 +1458,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="44" t="n">
-        <v>-0.373</v>
+        <v>-0.589</v>
       </c>
       <c r="C40" s="88" t="s">
         <v>83</v>
@@ -1469,7 +1469,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="45" t="n">
-        <v>797</v>
+        <v>942</v>
       </c>
       <c r="C41" s="89" t="s">
         <v>84</v>
@@ -1480,7 +1480,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>0.114</v>
+        <v>0.125</v>
       </c>
       <c r="C42" s="89" t="s">
         <v>84</v>
@@ -1491,7 +1491,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="47" t="n">
-        <v>0.069</v>
+        <v>0.088</v>
       </c>
       <c r="C43" s="89" t="s">
         <v>84</v>
@@ -1502,7 +1502,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>2.562</v>
+        <v>3.4</v>
       </c>
       <c r="C44" s="89" t="s">
         <v>84</v>

--- a/IRR_ols3.xlsx
+++ b/IRR_ols3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -155,115 +155,106 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.314 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.071 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.919 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.895 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.781 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.815 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.736 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.728 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.828 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.814 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.909 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.778 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.347)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.365)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.376)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.378)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.412)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.422)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.377)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.491)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.425)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.368)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.364)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.361)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.362)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.355)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.358)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.356)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.354)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.352)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.350)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.349)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.351)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.357)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.389)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.381)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.372)</t>
+    <t xml:space="preserve">-0.402 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.425 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.316 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.312 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.413 **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.365 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.377 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.348 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.341 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.328 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.388 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.382 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.424 **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.355 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.157)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.179)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.185)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.311)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.217)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.322)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.208)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.222)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.192)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.166)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.164)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.163)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.160)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.162)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.161)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.159)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.158)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.175)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.172)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.167)</t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
@@ -1043,7 +1034,7 @@
         <v>47</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -1051,10 +1042,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0.179</v>
+        <v>-0.235</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1062,10 +1053,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>0.361</v>
+        <v>0.2</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -1073,10 +1064,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="n">
-        <v>-0.578</v>
+        <v>0.438</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -1084,10 +1075,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>0.466</v>
+        <v>0.241</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1095,21 +1086,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="n">
-        <v>0.316</v>
+        <v>-0.416</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>48</v>
+      <c r="B8" s="12" t="n">
+        <v>0.228</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -1117,10 +1108,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.529</v>
+        <v>-0.253</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -1128,10 +1119,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>-0.661</v>
+        <v>-0.31</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1139,10 +1130,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="n">
-        <v>-0.76</v>
+        <v>-0.355</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -1150,10 +1141,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-0.662</v>
+        <v>-0.313</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -1161,10 +1152,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -1172,10 +1163,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>-0.695</v>
+        <v>-0.329</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -1183,10 +1174,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="n">
-        <v>-0.625</v>
+        <v>-0.295</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -1194,10 +1185,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>-0.638</v>
+        <v>-0.302</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -1205,10 +1196,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="n">
-        <v>-0.617</v>
+        <v>-0.29</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -1216,7 +1207,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-0.495</v>
+        <v>-0.235</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>71</v>
@@ -1227,10 +1218,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="n">
-        <v>-0.636</v>
+        <v>-0.298</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
@@ -1238,10 +1229,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>-0.59</v>
+        <v>-0.278</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -1249,10 +1240,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="n">
-        <v>-0.545</v>
+        <v>-0.258</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -1260,10 +1251,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-0.526</v>
+        <v>-0.25</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -1271,18 +1262,18 @@
         <v>22</v>
       </c>
       <c r="B23" s="27" t="n">
-        <v>-0.582</v>
+        <v>-0.277</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="28" t="n">
-        <v>-0.671</v>
+      <c r="B24" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="C24" s="72" t="s">
         <v>76</v>
@@ -1293,7 +1284,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="29" t="n">
-        <v>-0.624</v>
+        <v>-0.292</v>
       </c>
       <c r="C25" s="73" t="s">
         <v>77</v>
@@ -1304,7 +1295,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="30" t="n">
-        <v>-0.577</v>
+        <v>-0.27</v>
       </c>
       <c r="C26" s="74" t="s">
         <v>77</v>
@@ -1314,11 +1305,11 @@
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="31" t="n">
-        <v>-0.672</v>
+      <c r="B27" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28">
@@ -1326,10 +1317,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29">
@@ -1337,10 +1328,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -1348,10 +1339,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" s="78" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -1359,7 +1350,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" s="79" t="s">
         <v>76</v>
@@ -1370,21 +1361,21 @@
         <v>31</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="37" t="n">
-        <v>-0.696</v>
+      <c r="B33" s="37" t="s">
+        <v>56</v>
       </c>
       <c r="C33" s="81" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
@@ -1392,10 +1383,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
@@ -1403,10 +1394,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C35" s="83" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
@@ -1414,10 +1405,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C36" s="84" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
@@ -1425,10 +1416,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C37" s="85" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38">
@@ -1436,21 +1427,21 @@
         <v>37</v>
       </c>
       <c r="B38" s="42" t="n">
-        <v>-0.702</v>
+        <v>-0.336</v>
       </c>
       <c r="C38" s="86" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="43" t="n">
-        <v>-0.743</v>
+      <c r="B39" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="C39" s="87" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
@@ -1458,10 +1449,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="44" t="n">
-        <v>-0.589</v>
+        <v>-0.283</v>
       </c>
       <c r="C40" s="88" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
@@ -1469,10 +1460,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="45" t="n">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
@@ -1483,7 +1474,7 @@
         <v>0.125</v>
       </c>
       <c r="C42" s="89" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
@@ -1491,10 +1482,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="47" t="n">
-        <v>0.088</v>
+        <v>0.089</v>
       </c>
       <c r="C43" s="89" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
@@ -1502,10 +1493,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>3.4</v>
+        <v>3.405</v>
       </c>
       <c r="C44" s="89" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45">
@@ -1516,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="90" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
